--- a/artfynd/A 2762-2026 artfynd.xlsx
+++ b/artfynd/A 2762-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131197800</v>
       </c>
       <c r="B2" t="n">
-        <v>79862</v>
+        <v>79863</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>131199510</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -879,10 +879,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131198193</v>
+        <v>131198456</v>
       </c>
       <c r="B4" t="n">
-        <v>79862</v>
+        <v>79001</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,21 +890,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466050</v>
+        <v>466092</v>
       </c>
       <c r="R4" t="n">
-        <v>6788971</v>
+        <v>6789074</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131198456</v>
+        <v>131198193</v>
       </c>
       <c r="B5" t="n">
-        <v>79000</v>
+        <v>79863</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,21 +987,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466092</v>
+        <v>466050</v>
       </c>
       <c r="R5" t="n">
-        <v>6789074</v>
+        <v>6788971</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131197802</v>
+        <v>131198844</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,39 +1084,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465938</v>
+        <v>466309</v>
       </c>
       <c r="R6" t="n">
-        <v>6789021</v>
+        <v>6789077</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1175,10 +1170,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131198844</v>
+        <v>131197802</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,34 +1181,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466309</v>
+        <v>465938</v>
       </c>
       <c r="R7" t="n">
-        <v>6789077</v>
+        <v>6789021</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1275,7 +1275,7 @@
         <v>131198466</v>
       </c>
       <c r="B8" t="n">
-        <v>79833</v>
+        <v>79834</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1372,7 +1372,7 @@
         <v>131198462</v>
       </c>
       <c r="B9" t="n">
-        <v>79862</v>
+        <v>79863</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>131198869</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>131197848</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>131197946</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>131199405</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>131198192</v>
       </c>
       <c r="B15" t="n">
-        <v>79833</v>
+        <v>79834</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>131197889</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131198195</v>
+        <v>131198252</v>
       </c>
       <c r="B17" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,39 +2166,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466050</v>
+        <v>466111</v>
       </c>
       <c r="R17" t="n">
-        <v>6788971</v>
+        <v>6789063</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2257,10 +2252,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131198252</v>
+        <v>131198195</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2268,34 +2263,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466111</v>
+        <v>466050</v>
       </c>
       <c r="R18" t="n">
-        <v>6789063</v>
+        <v>6788971</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2561,7 +2561,7 @@
         <v>131198708</v>
       </c>
       <c r="B21" t="n">
-        <v>79833</v>
+        <v>79834</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>131197797</v>
       </c>
       <c r="B24" t="n">
-        <v>79833</v>
+        <v>79834</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>131198447</v>
       </c>
       <c r="B25" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3078,48 +3078,53 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131197961</v>
+        <v>131198249</v>
       </c>
       <c r="B26" t="n">
-        <v>8451</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>106545</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466023</v>
+        <v>466111</v>
       </c>
       <c r="R26" t="n">
-        <v>6788957</v>
+        <v>6789063</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3149,6 +3154,11 @@
       <c r="AA26" t="inlineStr">
         <is>
           <t>2026-02-17</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2 bild. Avbarkad gran</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3175,53 +3185,48 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131198249</v>
+        <v>131197961</v>
       </c>
       <c r="B27" t="n">
-        <v>57884</v>
+        <v>8451</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>106545</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466111</v>
+        <v>466023</v>
       </c>
       <c r="R27" t="n">
-        <v>6789063</v>
+        <v>6788957</v>
       </c>
       <c r="S27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3251,11 +3256,6 @@
       <c r="AA27" t="inlineStr">
         <is>
           <t>2026-02-17</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2 bild. Avbarkad gran</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3282,10 +3282,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131199091</v>
+        <v>131198231</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3293,42 +3293,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466114</v>
+        <v>466052</v>
       </c>
       <c r="R28" t="n">
-        <v>6788962</v>
+        <v>6789006</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3362,7 +3357,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2 bild, tall med gran till vänster.</t>
+          <t>Rikligt till måttligt i en radie av ca 50 meter  1 bild gren i förgrund</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3389,10 +3384,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131198231</v>
+        <v>131199091</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3400,37 +3395,42 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466052</v>
+        <v>466114</v>
       </c>
       <c r="R29" t="n">
-        <v>6789006</v>
+        <v>6788962</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter  1 bild gren i förgrund</t>
+          <t>2 bild, tall med gran till vänster.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3494,7 +3494,7 @@
         <v>131198787</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>131197782</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/artfynd/A 2762-2026 artfynd.xlsx
+++ b/artfynd/A 2762-2026 artfynd.xlsx
@@ -879,10 +879,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131198456</v>
+        <v>131198193</v>
       </c>
       <c r="B4" t="n">
-        <v>79001</v>
+        <v>79863</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,21 +890,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466092</v>
+        <v>466050</v>
       </c>
       <c r="R4" t="n">
-        <v>6789074</v>
+        <v>6788971</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -976,10 +976,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131198193</v>
+        <v>131198456</v>
       </c>
       <c r="B5" t="n">
-        <v>79863</v>
+        <v>79001</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,21 +987,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466050</v>
+        <v>466092</v>
       </c>
       <c r="R5" t="n">
-        <v>6788971</v>
+        <v>6789074</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131198252</v>
+        <v>131198195</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,34 +2166,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466111</v>
+        <v>466050</v>
       </c>
       <c r="R17" t="n">
-        <v>6789063</v>
+        <v>6788971</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2252,10 +2257,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131198195</v>
+        <v>131198252</v>
       </c>
       <c r="B18" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2263,39 +2268,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466050</v>
+        <v>466111</v>
       </c>
       <c r="R18" t="n">
-        <v>6788971</v>
+        <v>6789063</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 2762-2026 artfynd.xlsx
+++ b/artfynd/A 2762-2026 artfynd.xlsx
@@ -1170,10 +1170,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131197802</v>
+        <v>131198466</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79834</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,39 +1181,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>229821</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>465938</v>
+        <v>466092</v>
       </c>
       <c r="R7" t="n">
-        <v>6789021</v>
+        <v>6789074</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1272,10 +1267,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131198466</v>
+        <v>131197802</v>
       </c>
       <c r="B8" t="n">
-        <v>79834</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,34 +1278,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466092</v>
+        <v>465938</v>
       </c>
       <c r="R8" t="n">
-        <v>6789074</v>
+        <v>6789021</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131198195</v>
+        <v>131198252</v>
       </c>
       <c r="B17" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,39 +2166,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466050</v>
+        <v>466111</v>
       </c>
       <c r="R17" t="n">
-        <v>6788971</v>
+        <v>6789063</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2257,10 +2252,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131198252</v>
+        <v>131198195</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2268,34 +2263,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466111</v>
+        <v>466050</v>
       </c>
       <c r="R18" t="n">
-        <v>6789063</v>
+        <v>6788971</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -3282,10 +3282,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131198231</v>
+        <v>131199091</v>
       </c>
       <c r="B28" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3293,37 +3293,42 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466052</v>
+        <v>466114</v>
       </c>
       <c r="R28" t="n">
-        <v>6789006</v>
+        <v>6788962</v>
       </c>
       <c r="S28" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3357,7 +3362,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter  1 bild gren i förgrund</t>
+          <t>2 bild, tall med gran till vänster.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3384,10 +3389,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131199091</v>
+        <v>131198231</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3395,42 +3400,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466114</v>
+        <v>466052</v>
       </c>
       <c r="R29" t="n">
-        <v>6788962</v>
+        <v>6789006</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2 bild, tall med gran till vänster.</t>
+          <t>Rikligt till måttligt i en radie av ca 50 meter  1 bild gren i förgrund</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 2762-2026 artfynd.xlsx
+++ b/artfynd/A 2762-2026 artfynd.xlsx
@@ -1073,10 +1073,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131198844</v>
+        <v>131197802</v>
       </c>
       <c r="B6" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,34 +1084,39 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466309</v>
+        <v>465938</v>
       </c>
       <c r="R6" t="n">
-        <v>6789077</v>
+        <v>6789021</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1267,10 +1272,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131197802</v>
+        <v>131198844</v>
       </c>
       <c r="B8" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,39 +1283,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>465938</v>
+        <v>466309</v>
       </c>
       <c r="R8" t="n">
-        <v>6789021</v>
+        <v>6789077</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131198869</v>
+        <v>131197848</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466309</v>
+        <v>465971</v>
       </c>
       <c r="R10" t="n">
-        <v>6789065</v>
+        <v>6788983</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131197848</v>
+        <v>131198869</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>465971</v>
+        <v>466309</v>
       </c>
       <c r="R11" t="n">
-        <v>6788983</v>
+        <v>6789065</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 2762-2026 artfynd.xlsx
+++ b/artfynd/A 2762-2026 artfynd.xlsx
@@ -1466,7 +1466,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131197848</v>
+        <v>131198869</v>
       </c>
       <c r="B10" t="n">
         <v>79244</v>
@@ -1501,10 +1501,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>465971</v>
+        <v>466309</v>
       </c>
       <c r="R10" t="n">
-        <v>6788983</v>
+        <v>6789065</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131198869</v>
+        <v>131197848</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466309</v>
+        <v>465971</v>
       </c>
       <c r="R11" t="n">
-        <v>6789065</v>
+        <v>6788983</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>

--- a/artfynd/A 2762-2026 artfynd.xlsx
+++ b/artfynd/A 2762-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>131197800</v>
       </c>
       <c r="B2" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>131199510</v>
       </c>
       <c r="B3" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         <v>131198193</v>
       </c>
       <c r="B4" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>131198456</v>
       </c>
       <c r="B5" t="n">
-        <v>79001</v>
+        <v>79002</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1073,10 +1073,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131197802</v>
+        <v>131198844</v>
       </c>
       <c r="B6" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,39 +1084,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>465938</v>
+        <v>466309</v>
       </c>
       <c r="R6" t="n">
-        <v>6789021</v>
+        <v>6789077</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1175,10 +1170,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131198466</v>
+        <v>131197802</v>
       </c>
       <c r="B7" t="n">
-        <v>79834</v>
+        <v>57881</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1186,34 +1181,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466092</v>
+        <v>465938</v>
       </c>
       <c r="R7" t="n">
-        <v>6789074</v>
+        <v>6789021</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1272,10 +1272,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131198844</v>
+        <v>131198466</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>79835</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,21 +1283,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466309</v>
+        <v>466092</v>
       </c>
       <c r="R8" t="n">
-        <v>6789077</v>
+        <v>6789074</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1372,7 +1372,7 @@
         <v>131198462</v>
       </c>
       <c r="B9" t="n">
-        <v>79863</v>
+        <v>79864</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         <v>131198869</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         <v>131197848</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1663,7 +1663,7 @@
         <v>131197946</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>131199405</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1964,7 +1964,7 @@
         <v>131198192</v>
       </c>
       <c r="B15" t="n">
-        <v>79834</v>
+        <v>79835</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>131197889</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>131198252</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         <v>131198708</v>
       </c>
       <c r="B21" t="n">
-        <v>79834</v>
+        <v>79835</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>131197797</v>
       </c>
       <c r="B24" t="n">
-        <v>79834</v>
+        <v>79835</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2979,7 +2979,7 @@
         <v>131198447</v>
       </c>
       <c r="B25" t="n">
-        <v>79002</v>
+        <v>79003</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3282,10 +3282,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131199091</v>
+        <v>131198231</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3293,42 +3293,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466114</v>
+        <v>466052</v>
       </c>
       <c r="R28" t="n">
-        <v>6788962</v>
+        <v>6789006</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3362,7 +3357,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2 bild, tall med gran till vänster.</t>
+          <t>Rikligt till måttligt i en radie av ca 50 meter  1 bild gren i förgrund</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3389,10 +3384,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131198231</v>
+        <v>131199091</v>
       </c>
       <c r="B29" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3400,37 +3395,42 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466052</v>
+        <v>466114</v>
       </c>
       <c r="R29" t="n">
-        <v>6789006</v>
+        <v>6788962</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Rikligt till måttligt i en radie av ca 50 meter  1 bild gren i förgrund</t>
+          <t>2 bild, tall med gran till vänster.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3494,7 +3494,7 @@
         <v>131198787</v>
       </c>
       <c r="B30" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>131197782</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/artfynd/A 2762-2026 artfynd.xlsx
+++ b/artfynd/A 2762-2026 artfynd.xlsx
@@ -2155,10 +2155,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131198252</v>
+        <v>131198195</v>
       </c>
       <c r="B17" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,34 +2166,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466111</v>
+        <v>466050</v>
       </c>
       <c r="R17" t="n">
-        <v>6789063</v>
+        <v>6788971</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2252,10 +2257,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131198195</v>
+        <v>131198252</v>
       </c>
       <c r="B18" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2263,39 +2268,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466050</v>
+        <v>466111</v>
       </c>
       <c r="R18" t="n">
-        <v>6788971</v>
+        <v>6789063</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 2762-2026 artfynd.xlsx
+++ b/artfynd/A 2762-2026 artfynd.xlsx
@@ -1073,10 +1073,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131198844</v>
+        <v>131198466</v>
       </c>
       <c r="B6" t="n">
-        <v>79245</v>
+        <v>79835</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1084,21 +1084,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1108,10 +1108,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466309</v>
+        <v>466092</v>
       </c>
       <c r="R6" t="n">
-        <v>6789077</v>
+        <v>6789074</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1170,10 +1170,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131197802</v>
+        <v>131198844</v>
       </c>
       <c r="B7" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1181,39 +1181,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>465938</v>
+        <v>466309</v>
       </c>
       <c r="R7" t="n">
-        <v>6789021</v>
+        <v>6789077</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1272,10 +1267,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131198466</v>
+        <v>131197802</v>
       </c>
       <c r="B8" t="n">
-        <v>79835</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1283,34 +1278,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>229821</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466092</v>
+        <v>465938</v>
       </c>
       <c r="R8" t="n">
-        <v>6789074</v>
+        <v>6789021</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -2155,10 +2155,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131198195</v>
+        <v>131198252</v>
       </c>
       <c r="B17" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2166,39 +2166,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466050</v>
+        <v>466111</v>
       </c>
       <c r="R17" t="n">
-        <v>6788971</v>
+        <v>6789063</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2257,10 +2252,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131198252</v>
+        <v>131198195</v>
       </c>
       <c r="B18" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2268,34 +2263,39 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Svalkestjärnen, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466111</v>
+        <v>466050</v>
       </c>
       <c r="R18" t="n">
-        <v>6789063</v>
+        <v>6788971</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
